--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_88.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_88.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,614 +488,692 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_36</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_13</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.08121410992616898</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['G', 'G', 'C:7', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_55</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_69</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1230769230769231</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Eb', 'Eb', 'Ab:7', 'Eb']]</t>
+          <t>[['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(55.34, 64.73)]</t>
+          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(9.15, 20.11)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:41.380000', '0:00:43.340000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:42.360000', '0:00:50.360000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'D:7/C']]</t>
-        </is>
+          <t>isophonics_227</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.09646739130434782</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Eb:7', 'Ab:maj', 'Bb:7']]</t>
+          <t>[['E:7', 'A:min', 'A:min/b3']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(315.46, 322.92)]</t>
+          <t>[['C:7', 'F:min', 'F:min']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(39.305, 42.588)]</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr"/>
+          <t>[('0:00:05.672040', '0:00:08.841564')]</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>[('0:00:03.340000', '0:00:06.820000')]</t>
+        </is>
+      </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1036789297658863</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['F#:min', 'C#:7', 'F#:min'], ['F#:min', 'B:min/F#', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_63</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1916666666666667</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
+          <t>[['C/G', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(3.82, 6.46), (1.36, 4.74)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(80.2, 86.86), (26.2, 33.96)]</t>
+          <t>[('0:04:13.840000', '0:04:17.600000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:09.200000', '0:00:20.100000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_231</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1325665859564165</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_73</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.3142857142857143</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['D/5', 'G', 'C']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj'], ['F:maj', 'A#:maj', 'F:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(57.401473, 64.808639)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(38.435396, 43.311587)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
+          <t>[('0:00:44', '0:01:01.060000'), ('0:02:09.380000', '0:02:14.380000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:01:06.920000', '0:01:08.180000'), ('0:01:05.200000', '0:01:07.500000')]</t>
+        </is>
+      </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>spotify:track:4F1AgKpuFRMLEgtPETVwZk</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_204</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.2102564102564103</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_74</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_70</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.2363636363636364</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(32.874217, 40.885102)]</t>
+          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(121.08, 122.34)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:09.780000', '0:00:14.360000'), ('0:00:01.540000', '0:00:06.680000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:01.540000', '0:00:03.580000'), ('0:00:14.860000', '0:00:17.320000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_210</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07672413793103448</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:7', 'C:min'], ['C:min/G', 'G', 'C:min']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_132</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.3794871794871795</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7/G', 'G:min'], ['G:min', 'D:maj/G', 'G:min']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(20.92, 24.02), (11.24, 15.78)]</t>
+          <t>[['C:7', 'F:maj', 'C:7/A#', 'F:maj/A', 'C:7/A#', 'F:maj/A']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(16.58, 22.66), (7.14, 14.34)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:12.500000', '0:01:33.840000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_56</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07115278543849973</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['G:7', 'C', 'C/7']]</t>
-        </is>
+          <t>isophonics_220</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jaah_0</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4433497536945813</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb']]</t>
+          <t>[['D', 'D', 'D/7', 'D/6', 'D/5']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.318208, 18.355396)]</t>
+          <t>[['Ab', 'Ab', 'Ab', 'Ab', 'Ab']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(175.57, 179.38)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:00.325509', '0:00:04.348503')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:26.640000', '0:01:33.250000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_251</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2571428571428571</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A:7', 'E'], ['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_173</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_157</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D', 'G:7', 'D'], ['D', 'G', 'D']]</t>
+          <t>[['G:min', 'C:min/G', 'G:min', 'D:7', 'G:min', 'G:min', 'A:min/C', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'D:maj/A', 'A:7', 'D:maj', 'G:min', 'C#:dim7', 'D:maj', 'G:maj/B', 'D:7', 'G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(21.737596, 29.7717), (15.027029, 21.737596)]</t>
+          <t>[['F:min', 'A#:min/F', 'F:min', 'C:7', 'F:min', 'F:min', 'G:min/A#', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'C:maj/G', 'G:7', 'C:maj', 'F:min', 'B:dim7', 'C:maj', 'F:maj/A', 'C:7', 'F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(139.240204, 144.766553), (7.525011, 12.93526)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>[('0:00:00.220000', '0:00:21.940000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:00.300000', '0:00:20.700000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_95</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>jaah_23</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.06706730769230769</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['E', 'D', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_77</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_150</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['Bb', 'Ab', 'Bb']]</t>
+          <t>[['C', 'F:min/C', 'C', 'F:min', 'C', 'F:min']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(0.421247, 8.319115)]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(0.72, 7.99)]</t>
+          <t>[('0:00:48.460000', '0:01:01.580000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1H7gMYGykdtwZOV6s1N0by</t>
+          <t>[('0:00:00.780000', '0:00:09.740000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_99</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_171</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1056818181818182</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['E', 'C#:min', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['E', 'C#:min', 'A']]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(23.574625, 26.08238)]</t>
+          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.216719, 11.404837)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:00:29.020000', '0:00:40.820000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:53.140000', '0:01:54.880000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2664473684210527</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['G/5', 'C/9', 'G']]</t>
-        </is>
+          <t>isophonics_65</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_144</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3653846153846154</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['C#', 'F#:min/5', 'D']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(0.727609, 8.204625)]</t>
+          <t>[['A:maj', 'D:min', 'A#:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:01:19.910000', '0:01:26.123000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:05.140000', '0:00:08.920000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_131</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_27</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
+          <t>schubert-winterreise_71</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_115</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>1</v>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
+          <t>[['C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min', 'C:min', 'G:7', 'C:min', 'C:min', 'C:min/G', 'G:7', 'C:(3,5,b7,b9)/E', 'F:min', 'C:maj/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'D#:maj/A#', 'A#:7', 'D#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:maj', 'G:(3,5,b7,b9)/B', 'A#:7', 'D#:maj/A#', 'A#:7', 'D#:maj', 'C:min/G', 'G:7', 'C:min', 'G:7/D', 'C:min', 'G:7/D', 'C:min', 'G:7', 'C:min']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(60.32, 66.7)]</t>
+          <t>[['D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min', 'D:min', 'D:min/A', 'A:7', 'D:(3,5,b7,b9)/F#', 'G:min', 'D:maj/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'F:maj/C', 'C:7', 'F:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:maj', 'A:(3,5,b7,b9)/C#', 'C:7', 'F:maj/C', 'C:7', 'F:maj', 'D:min/A', 'A:7', 'D:min', 'A:7/E', 'D:min', 'A:7/E', 'D:min', 'A:7', 'D:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(61.54, 67.9)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
+          <t>[('0:00:00.360000', '0:02:27.720000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:00.380000', '0:02:22.380000')]</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_31</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2302631578947368</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['C', 'G', 'C', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D', 'A/3']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(13.336043, 30.271443)]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(12.743, 17.058)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:00:05.700000', '0:00:19.720000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_77</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_164</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1734375</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['C', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_188</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(21.17, 23.45)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(48.001, 54.307)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
+          <t>[('0:02:00.400000', '0:02:07.200000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_21</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min']]</t>
-        </is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(2.66, 7.98)]</t>
+          <t>[['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(82.5, 90.74)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
+          <t>[('0:00:14.440000', '0:00:41.800000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:27.760000', '0:00:40.180000')]</t>
+        </is>
+      </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_78</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2196969696969697</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(6.726778, 13.147096)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(60.76, 64.36)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
